--- a/datas.xlsx
+++ b/datas.xlsx
@@ -53,9 +53,6 @@
     <t>turut serta dalam YLCC november 2022</t>
   </si>
   <si>
-    <t>4. ENVIRONMENTAL ANALIST / ANALIS LINGKUNGAN</t>
-  </si>
-  <si>
     <t>D4 Teknik Lingkungan, Menganalisis sampel lingkungan yang dikumpulkan di lapangan.</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Adakan seminar rutin bertema green jobs</t>
+  </si>
+  <si>
+    <t>6. ENVIRONMENTAL ADVISOR / PENASIHAT LINGKUNGAN</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:EO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,8 +492,8 @@
       <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>9</v>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -506,10 +506,10 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
@@ -550,277 +550,278 @@
         <v>5</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BG1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI1" s="3">
+        <v>5</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>4</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>5</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>5</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>5</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>4</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>4</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>4</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>5</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>4</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>4</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>5</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>5</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>4</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>4</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>4</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>4</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>4</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>5</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>4</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>5</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>4</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DD1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DE1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DK1" s="2">
+        <v>4</v>
+      </c>
+      <c r="DL1" s="2">
+        <v>4</v>
+      </c>
+      <c r="DM1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DN1" s="2">
+        <v>4</v>
+      </c>
+      <c r="DO1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DS1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DT1" s="2">
+        <v>5</v>
+      </c>
+      <c r="DU1" s="2">
+        <v>4</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DX1" s="2">
+        <v>4</v>
+      </c>
+      <c r="DY1" s="2">
+        <v>4</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="EA1" s="2">
+        <v>4</v>
+      </c>
+      <c r="EB1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BH1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI1" s="3">
-        <v>5</v>
-      </c>
-      <c r="BJ1" s="3">
-        <v>4</v>
-      </c>
-      <c r="BK1" s="3">
-        <v>5</v>
-      </c>
-      <c r="BL1" s="2">
-        <v>4</v>
-      </c>
-      <c r="BM1" s="2">
-        <v>5</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BQ1" s="2">
-        <v>5</v>
-      </c>
-      <c r="BR1" s="2">
-        <v>4</v>
-      </c>
-      <c r="BS1" s="2">
-        <v>4</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BW1" s="2">
-        <v>4</v>
-      </c>
-      <c r="BX1" s="2">
-        <v>5</v>
-      </c>
-      <c r="BY1" s="2">
-        <v>4</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CD1" s="2">
-        <v>5</v>
-      </c>
-      <c r="CE1" s="2">
-        <v>4</v>
-      </c>
-      <c r="CF1" s="2">
-        <v>5</v>
-      </c>
-      <c r="CG1" s="2">
-        <v>5</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ1" s="2">
-        <v>4</v>
-      </c>
-      <c r="CK1" s="2">
-        <v>4</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CP1" s="2">
-        <v>4</v>
-      </c>
-      <c r="CQ1" s="2">
-        <v>4</v>
-      </c>
-      <c r="CR1" s="2">
-        <v>4</v>
-      </c>
-      <c r="CS1" s="2">
-        <v>5</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW1" s="2">
-        <v>4</v>
-      </c>
-      <c r="CX1" s="2">
-        <v>5</v>
-      </c>
-      <c r="CY1" s="2">
-        <v>4</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DC1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DD1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DE1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DK1" s="2">
-        <v>4</v>
-      </c>
-      <c r="DL1" s="2">
-        <v>4</v>
-      </c>
-      <c r="DM1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DN1" s="2">
-        <v>4</v>
-      </c>
-      <c r="DO1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DS1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DT1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DU1" s="2">
-        <v>4</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DX1" s="2">
-        <v>4</v>
-      </c>
-      <c r="DY1" s="2">
-        <v>4</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="EA1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2">
+        <v>4</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="EE1" s="2">
+        <v>5</v>
+      </c>
+      <c r="EF1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="EC1" s="2">
-        <v>4</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="EE1" s="2">
-        <v>5</v>
-      </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2">
+        <v>4</v>
+      </c>
+      <c r="EH1" s="2">
+        <v>4</v>
+      </c>
+      <c r="EI1" s="2">
+        <v>4</v>
+      </c>
+      <c r="EJ1" s="2">
+        <v>5</v>
+      </c>
+      <c r="EK1" s="2">
+        <v>5</v>
+      </c>
+      <c r="EL1" s="2">
+        <v>4</v>
+      </c>
+      <c r="EM1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="EG1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EH1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EI1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EJ1" s="2">
-        <v>5</v>
-      </c>
-      <c r="EK1" s="2">
-        <v>5</v>
-      </c>
-      <c r="EL1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="EO1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datas.xlsx
+++ b/datas.xlsx
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>Ya</t>
   </si>
   <si>
-    <t>Yunan Yakuta W</t>
+    <t>Laila Devi Anggita Putri</t>
   </si>
   <si>
     <t>Teknik Sipil dan Lingkungan</t>
@@ -38,50 +38,41 @@
     <t>Perempuan</t>
   </si>
   <si>
-    <t>Gaji atau kompensasi yang kompetitif, Peluang pengembangan diri, Prospek karir jangka panjang</t>
+    <t>Kesempatan untuk berkontribusi pada lingkungan, Peluang pengembangan diri</t>
   </si>
   <si>
     <t>Mata kuliah, Teman/Kerabat, Keluarga, Youtube</t>
   </si>
   <si>
-    <t>Tidak</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>turut serta dalam YLCC november 2022</t>
-  </si>
-  <si>
-    <t>D4 Teknik Lingkungan, Menganalisis sampel lingkungan yang dikumpulkan di lapangan.</t>
-  </si>
-  <si>
-    <t>Menganalisis sampel lingkungan yang dikumpulkan di lapangan:
-Melakukan analisis kualitas air sungai (pH, DO, BOD, COD) di Laboratorium Teknik Lingkungan IPB menggunakan sampel yang diambil dari DAS Ciliwung dalam kegiatan praktikum dan proyek lapangan.</t>
+    <t>di kknt 2023, aku ditugasin di desa sukadamai aku dan tim ngajarin warga cara bikin pupuk kompos dari sampah dapur</t>
+  </si>
+  <si>
+    <t>menjadi peserta kota berkelanjutan urban climate ipb oktober 2023</t>
+  </si>
+  <si>
+    <t>4. ENVIRONMENTAL ANALIST / ANALIS LINGKUNGAN</t>
+  </si>
+  <si>
+    <t>S1 Teknik Lingkungan, Meneliti riwayat perubahan lingkungan beserta penyebabnya, Menyusun rekomendasi untuk pembuat kebijakan guna mengatasi masalah lingkungan</t>
+  </si>
+  <si>
+    <t>meneliti riwayat perubahan lingkungan beserta penyebabnya: melakukan analisis data citra satelit untuk memantau perubahan tutupan lahan dalam 10 tahun terakhir pada daerah aliran sungai.
+menyusun rekomendasi untuk pembuat kebijakan guna mengatasi masalah lingkungan: menyusun ringkasan kebijakan berbasis data kualitas udara dan usulan pengurangan emisi kendaraan bermotor di area perkotaan.</t>
+  </si>
+  <si>
+    <t>Penting</t>
   </si>
   <si>
     <t>Sangat Penting</t>
   </si>
   <si>
-    <t>Penting</t>
-  </si>
-  <si>
-    <t>Kurang Penting</t>
-  </si>
-  <si>
-    <t>Cukup Penting</t>
-  </si>
-  <si>
-    <t>Praktik GHRM mendukung keberlanjutan yang menjadi fokus utama kami sebagai mahasiswa teknik lingkungan</t>
-  </si>
-  <si>
-    <t>Green skills membuat saya lebih yakin melamar ke perusahaan ramah lingkungan</t>
-  </si>
-  <si>
-    <t>Adakan seminar rutin bertema green jobs</t>
-  </si>
-  <si>
-    <t>6. ENVIRONMENTAL ADVISOR / PENASIHAT LINGKUNGAN</t>
+    <t>GHRM memperkuat budaya kerja hijau yang penting dalam menghadapi krisis iklim</t>
+  </si>
+  <si>
+    <t>Green skills jadi nilai tambah untuk kontribusi nyata</t>
+  </si>
+  <si>
+    <t>Fasilitasi magang di perusahaan ramah lingkungan</t>
   </si>
 </sst>
 </file>
@@ -437,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="DS1" workbookViewId="0">
+      <selection activeCell="DZ1" sqref="DZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -463,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1">
-        <v>82404287594</v>
+        <v>89549123877</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -478,22 +469,22 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -532,7 +523,7 @@
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY1" s="3">
         <v>4</v>
@@ -541,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="BA1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB1" s="3">
         <v>4</v>
@@ -553,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ1" s="3">
         <v>4</v>
@@ -577,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="BM1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BO1" s="2" t="s">
         <v>11</v>
@@ -601,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BV1" s="2" t="s">
         <v>12</v>
@@ -616,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CB1" s="2" t="s">
         <v>11</v>
@@ -634,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="CF1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG1" s="2">
         <v>5</v>
@@ -646,7 +637,7 @@
         <v>12</v>
       </c>
       <c r="CJ1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK1" s="2">
         <v>4</v>
@@ -655,13 +646,13 @@
         <v>12</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CN1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CP1" s="2">
         <v>4</v>
@@ -670,28 +661,28 @@
         <v>4</v>
       </c>
       <c r="CR1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CT1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CX1" s="2">
         <v>5</v>
       </c>
       <c r="CY1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ1" s="2" t="s">
         <v>12</v>
@@ -700,13 +691,13 @@
         <v>11</v>
       </c>
       <c r="DB1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DC1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DD1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DE1" s="2">
         <v>5</v>
@@ -718,10 +709,10 @@
         <v>11</v>
       </c>
       <c r="DH1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DI1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DJ1" s="2" t="s">
         <v>12</v>
@@ -730,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="DL1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DM1" s="2">
         <v>5</v>
@@ -742,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="DP1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DQ1" s="2" t="s">
         <v>11</v>
@@ -751,77 +742,76 @@
         <v>12</v>
       </c>
       <c r="DS1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DT1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DU1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DV1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DX1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DY1" s="2">
-        <v>4</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="DZ1" s="2">
+        <v>3</v>
       </c>
       <c r="EA1" s="2">
         <v>4</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EB1" s="2">
+        <v>3</v>
+      </c>
+      <c r="EC1" s="2">
+        <v>5</v>
+      </c>
+      <c r="ED1" s="2">
+        <v>1</v>
+      </c>
+      <c r="EE1" s="2">
+        <v>4</v>
+      </c>
+      <c r="EF1" s="2">
+        <v>2</v>
+      </c>
+      <c r="EG1" s="2">
+        <v>5</v>
+      </c>
+      <c r="EH1" s="2">
+        <v>4</v>
+      </c>
+      <c r="EI1" s="2">
+        <v>4</v>
+      </c>
+      <c r="EJ1" s="2">
+        <v>5</v>
+      </c>
+      <c r="EK1" s="2">
+        <v>5</v>
+      </c>
+      <c r="EL1" s="2">
+        <v>5</v>
+      </c>
+      <c r="EM1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="EC1" s="2">
-        <v>4</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="EE1" s="2">
-        <v>5</v>
-      </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="EG1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EH1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EI1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EJ1" s="2">
-        <v>5</v>
-      </c>
-      <c r="EK1" s="2">
-        <v>5</v>
-      </c>
-      <c r="EL1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="EN1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="EO1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datas.xlsx
+++ b/datas.xlsx
@@ -24,62 +24,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Ya</t>
   </si>
   <si>
-    <t>Laila Devi Anggita Putri</t>
-  </si>
-  <si>
-    <t>Teknik Sipil dan Lingkungan</t>
-  </si>
-  <si>
     <t>Perempuan</t>
   </si>
   <si>
-    <t>Kesempatan untuk berkontribusi pada lingkungan, Peluang pengembangan diri</t>
-  </si>
-  <si>
-    <t>Mata kuliah, Teman/Kerabat, Keluarga, Youtube</t>
-  </si>
-  <si>
-    <t>di kknt 2023, aku ditugasin di desa sukadamai aku dan tim ngajarin warga cara bikin pupuk kompos dari sampah dapur</t>
-  </si>
-  <si>
-    <t>menjadi peserta kota berkelanjutan urban climate ipb oktober 2023</t>
-  </si>
-  <si>
-    <t>4. ENVIRONMENTAL ANALIST / ANALIS LINGKUNGAN</t>
-  </si>
-  <si>
-    <t>S1 Teknik Lingkungan, Meneliti riwayat perubahan lingkungan beserta penyebabnya, Menyusun rekomendasi untuk pembuat kebijakan guna mengatasi masalah lingkungan</t>
-  </si>
-  <si>
-    <t>meneliti riwayat perubahan lingkungan beserta penyebabnya: melakukan analisis data citra satelit untuk memantau perubahan tutupan lahan dalam 10 tahun terakhir pada daerah aliran sungai.
-menyusun rekomendasi untuk pembuat kebijakan guna mengatasi masalah lingkungan: menyusun ringkasan kebijakan berbasis data kualitas udara dan usulan pengurangan emisi kendaraan bermotor di area perkotaan.</t>
-  </si>
-  <si>
     <t>Penting</t>
   </si>
   <si>
-    <t>Sangat Penting</t>
-  </si>
-  <si>
-    <t>GHRM memperkuat budaya kerja hijau yang penting dalam menghadapi krisis iklim</t>
-  </si>
-  <si>
-    <t>Green skills jadi nilai tambah untuk kontribusi nyata</t>
-  </si>
-  <si>
-    <t>Fasilitasi magang di perusahaan ramah lingkungan</t>
+    <t>Cukup Penting</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Hasannah Alhayyu</t>
+  </si>
+  <si>
+    <t>Teknik dan Manajemen Lingkungan</t>
+  </si>
+  <si>
+    <t>Keselarasan dengan nilai dalam diri, Gaji atau kompensasi yang kompetitif, Prospek karir jangka panjang</t>
+  </si>
+  <si>
+    <t>Mata kuliah, Teman/Kerabat, Youtube</t>
+  </si>
+  <si>
+    <t>ikut kegiatan taman baca lingkungan di desa cibanteng anak-anak diajarin baca sambil dikenalin soal pentingnya jaga alam</t>
+  </si>
+  <si>
+    <t>mengikuti seminar arsitektur dan desain kota adaptif terhadap iklim dari ipb dan iai jawa barat maret 2024</t>
+  </si>
+  <si>
+    <t>14. AIR POLLUTION ANALYST / ANALIS POLUSI UDARA</t>
+  </si>
+  <si>
+    <t>D4 Teknik Lingkungan, Melaksanakan Pengendalian Pencemaran Udara (PPU) dari emisi, Menentukan karakteristik sumber pencemar udara dari emisi</t>
+  </si>
+  <si>
+    <t>melaksanakan pengendalian pencemaran udara (ppu) dari emisi:
+pernah terlibat dalam simulasi penanganan emisi pabrik skala laboratorium dengan penerapan prinsip ppu seperti perbaikan proses dan penggunaan alat kontrol emisi.
+menentukan karakteristik sumber pencemar udara dari emisi:
+melakukan identifikasi jenis dan konsentrasi polutan dari cerobong industri menggunakan data inventaris emisi dan metode estimasi berdasarkan jenis bahan bakar.</t>
+  </si>
+  <si>
+    <t>Sebagai calon profesional lingkungan, saya mendukung penuh GHRM</t>
+  </si>
+  <si>
+    <t>Green skills memperkuat koneksi saya dengan visi perusahaan</t>
+  </si>
+  <si>
+    <t>Libatkan mahasiswa dalam audit lingkungan kampus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +97,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,11 +142,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -144,6 +164,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -426,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EO1"/>
+  <dimension ref="A1:EQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DS1" workbookViewId="0">
-      <selection activeCell="DZ1" sqref="DZ1"/>
+    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
+      <selection activeCell="EI1" sqref="EI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:145" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:147" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,49 +471,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>83887606538</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1">
-        <v>89549123877</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -496,12 +525,8 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
@@ -514,8 +539,12 @@
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
+      <c r="AP1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
@@ -523,136 +552,136 @@
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY1" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA1" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB1" s="3">
         <v>4</v>
       </c>
       <c r="BC1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BI1" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ1" s="3">
         <v>4</v>
       </c>
       <c r="BK1" s="3">
-        <v>5</v>
-      </c>
-      <c r="BL1" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="BL1" s="6">
+        <v>3</v>
       </c>
       <c r="BM1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BO1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BQ1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR1" s="2">
         <v>4</v>
       </c>
       <c r="BS1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BU1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BW1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BX1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY1" s="2">
         <v>4</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="CC1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CD1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CG1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CJ1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="CN1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CO1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="CP1" s="2">
         <v>4</v>
@@ -661,157 +690,164 @@
         <v>4</v>
       </c>
       <c r="CR1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CT1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="CW1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CX1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CY1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CZ1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="DB1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="DC1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DD1" s="2">
         <v>4</v>
       </c>
       <c r="DE1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DF1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="DG1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="DH1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="DI1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="DJ1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="DK1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DL1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DM1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DN1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DO1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DP1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="DQ1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="DR1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="DS1" s="2">
         <v>4</v>
       </c>
       <c r="DT1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DU1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DV1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="DW1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="DX1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DY1" s="2">
-        <v>5</v>
-      </c>
-      <c r="DZ1" s="2">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="EA1" s="2">
         <v>4</v>
       </c>
-      <c r="EB1" s="2">
-        <v>3</v>
+      <c r="EB1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="EC1" s="2">
-        <v>5</v>
-      </c>
-      <c r="ED1" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="EE1" s="2">
-        <v>4</v>
-      </c>
-      <c r="EF1" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="EG1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="EH1" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EI1" s="2">
         <v>4</v>
       </c>
       <c r="EJ1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EK1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="EL1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EM1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="EN1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="EO1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="EP1" s="4">
+        <v>45874.645833333336</v>
+      </c>
+      <c r="EQ1" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>